--- a/Documentation/Product Backlog.xlsx
+++ b/Documentation/Product Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -62,15 +62,23 @@
     <t>Dropped</t>
   </si>
   <si>
-    <t>As a administrator
+    <t>PBI001</t>
+  </si>
+  <si>
+    <t>As an administrator
 I want to make sure not everyone can access the site 
 Because we want to control the user count</t>
   </si>
   <si>
-    <t>THE CELL BELOW IS AN EMPTY USER STORY USE IT TO CREATE NEW ONES BUT TO NOT REMOVE IT</t>
-  </si>
-  <si>
-    <t>PBI001</t>
+    <t>THE CELL BELOW IS AN EMPTY USER STORY USE IT TO CREATE NEW ONES BUT DO NOT REMOVE IT</t>
+  </si>
+  <si>
+    <t>PBI002</t>
+  </si>
+  <si>
+    <t>As a user
+I want to be able to use the site without logging in if I don't need any data saved
+Because I want quick and simple</t>
   </si>
 </sst>
 </file>
@@ -138,9 +146,9 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -179,105 +187,35 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -300,9 +238,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -340,7 +278,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -412,7 +350,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -590,7 +528,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1048557" sqref="C1048557"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,10 +558,10 @@
     </row>
     <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="5">
         <v>1000</v>
@@ -635,9 +573,20 @@
         <v>10</v>
       </c>
     </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -714,7 +663,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E1:E3 E5:E1048576</xm:sqref>
+          <xm:sqref>E5:E1048576 E1:E3</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -724,7 +673,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E3 E5:E1048576</xm:sqref>
+          <xm:sqref>E5:E1048576 E2:E3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Documentation/Product Backlog.xlsx
+++ b/Documentation/Product Backlog.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -76,9 +76,156 @@
     <t>PBI002</t>
   </si>
   <si>
+    <t>PBI003</t>
+  </si>
+  <si>
+    <t>PBI004</t>
+  </si>
+  <si>
+    <t>PBI005</t>
+  </si>
+  <si>
+    <t>PBI006</t>
+  </si>
+  <si>
     <t>As a user
-I want to be able to use the site without logging in if I don't need any data saved
+I want to see results from my tests via another link without logging in
 Because I want quick and simple</t>
+  </si>
+  <si>
+    <t>As an administrator
+I want all questions saved
+Because I want a large question bank</t>
+  </si>
+  <si>
+    <t>As an administrator/educator
+I want student and teacher accounts to be the same (i.e. user)
+Because I want to blur the line between students and teachers and it's probably easier to manage.</t>
+  </si>
+  <si>
+    <t>As a user
+I want to track other user's progress
+Because I want to help others</t>
+  </si>
+  <si>
+    <t>As a user
+I want to track my progress by logging in
+Because it's educational</t>
+  </si>
+  <si>
+    <t>As a user
+I want to make tests and share them via a link without logging in
+Because I want quick and simple</t>
+  </si>
+  <si>
+    <t>As a user
+I want to take pre-made tests without logging in if I don't need to save my own results
+Because I want quick and simple</t>
+  </si>
+  <si>
+    <t>As a user
+I want to track other users' progress
+Because I want to help others</t>
+  </si>
+  <si>
+    <t>As a new user
+I want making/compiling tests to be really, really easy
+Because I don't (yet) think the website is worth my time</t>
+  </si>
+  <si>
+    <t>As a user
+I want to take auto-generated tests
+Because I need more practice</t>
+  </si>
+  <si>
+    <t>As a user
+When making a test, I want to put in my own question, I want to pick a question from a list of suggestions, I want to add a random question
+Because I want diversity AND control</t>
+  </si>
+  <si>
+    <t>As an experienced user
+I want import/export-functionality to use tests in other programs
+Because my school uses an ELO</t>
+  </si>
+  <si>
+    <t>As a new user
+I want text-based submissions (e.g. when pasted
+1) He … currently … his car (to wash) 
+2) He never … his car (to wash)
+should be recognised as two questions and inserted as such
+Because I want quick</t>
+  </si>
+  <si>
+    <t>As a user
+I don't want labels to be fixed
+Because I might think of topics of my own</t>
+  </si>
+  <si>
+    <t>As an administrator
+I want every saved exercise and its questions to have labels of question-type and topic
+Because the user wants auto-generated tests</t>
+  </si>
+  <si>
+    <t>As a user
+I don't want to add labels to questions (require topic? Auto-copy from exercise?)
+Because I want fast</t>
+  </si>
+  <si>
+    <t>As a user
+When auto-generating a test, I want to narrow potential questions by selecting a category, and then choose what labels to include and exclude, e.g. by (de)selecting related labels in a word cloud
+Because I don't want irrelevant questions</t>
+  </si>
+  <si>
+    <t>As an administrator
+I want to merge labels that are virtually the same (e.g. presentcontinous and 'present continuous')
+Because I want to make the life of my users easier</t>
+  </si>
+  <si>
+    <t>As a user
+I want to inform my teacher (tracker) and the app if a question is irrelevant (and specify why with labels) and exclude it from result calculations (whether this can be done depends on owner of test)
+Because I don't want irrelevant questions and inaccurate results</t>
+  </si>
+  <si>
+    <t>PBI007</t>
+  </si>
+  <si>
+    <t>PBI008</t>
+  </si>
+  <si>
+    <t>PBI009</t>
+  </si>
+  <si>
+    <t>PBI010</t>
+  </si>
+  <si>
+    <t>PBI011</t>
+  </si>
+  <si>
+    <t>PBI012</t>
+  </si>
+  <si>
+    <t>PBI013</t>
+  </si>
+  <si>
+    <t>PBI014</t>
+  </si>
+  <si>
+    <t>PBI015</t>
+  </si>
+  <si>
+    <t>PBI016</t>
+  </si>
+  <si>
+    <t>PBI017</t>
+  </si>
+  <si>
+    <t>PBI018</t>
+  </si>
+  <si>
+    <t>PBI019</t>
+  </si>
+  <si>
+    <t>PBI020</t>
   </si>
 </sst>
 </file>
@@ -146,9 +293,674 @@
     <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="105">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF99CCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCFF99"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -238,9 +1050,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -278,7 +1090,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -350,7 +1162,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -524,11 +1336,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,47 +1385,249 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
+  <autoFilter ref="A1:E1">
+    <sortState ref="A2:E6">
+      <sortCondition ref="A1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="6" operator="equal" id="{CB7D9564-3487-49FA-8A45-F52788AC9C50}">
+          <x14:cfRule type="cellIs" priority="66" operator="equal" id="{CB7D9564-3487-49FA-8A45-F52788AC9C50}">
             <xm:f>Sheet2!$A$5</xm:f>
             <x14:dxf>
               <fill>
@@ -623,7 +1637,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="7" operator="equal" id="{B5729598-715A-4761-B553-8527DF25944B}">
+          <x14:cfRule type="cellIs" priority="67" operator="equal" id="{B5729598-715A-4761-B553-8527DF25944B}">
             <xm:f>Sheet2!$A$4</xm:f>
             <x14:dxf>
               <fill>
@@ -633,7 +1647,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="8" operator="equal" id="{FF39DD1E-B0DD-421A-84A2-8AB0E24F7209}">
+          <x14:cfRule type="cellIs" priority="68" operator="equal" id="{FF39DD1E-B0DD-421A-84A2-8AB0E24F7209}">
             <xm:f>Sheet2!$A$3</xm:f>
             <x14:dxf>
               <fill>
@@ -643,7 +1657,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="9" operator="equal" id="{0ECD0148-6EB7-464B-9BCB-A9FC4B2151C7}">
+          <x14:cfRule type="cellIs" priority="69" operator="equal" id="{0ECD0148-6EB7-464B-9BCB-A9FC4B2151C7}">
             <xm:f>Sheet2!$A$2</xm:f>
             <x14:dxf>
               <fill>
@@ -653,7 +1667,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="10" operator="equal" id="{E4D9DBE0-98C8-4F32-8943-840A9F89883A}">
+          <x14:cfRule type="cellIs" priority="70" operator="equal" id="{E4D9DBE0-98C8-4F32-8943-840A9F89883A}">
             <xm:f>Sheet2!$A$1</xm:f>
             <x14:dxf>
               <fill>
@@ -663,7 +1677,431 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>E5:E1048576 E1:E3</xm:sqref>
+          <xm:sqref>E1:E4 E22:E1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="51" operator="equal" id="{316265FB-6F61-4E57-B072-9D13F88053A6}">
+            <xm:f>Sheet2!$A$5</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFFFF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="52" operator="equal" id="{1558288C-F0C2-4E34-ABBF-61B2143741AE}">
+            <xm:f>Sheet2!$A$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFCCFF99"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="53" operator="equal" id="{8509BF37-5861-4455-B8D2-8B585CDE3E42}">
+            <xm:f>Sheet2!$A$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF99"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="54" operator="equal" id="{591F26F2-DDDD-4086-93F0-7FAA449A5740}">
+            <xm:f>Sheet2!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="55" operator="equal" id="{A9514637-DC0D-4B79-B668-6D80531E6E49}">
+            <xm:f>Sheet2!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF99CCFF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E5</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="46" operator="equal" id="{CC2A681F-43BA-4F11-87CA-34E3F546E686}">
+            <xm:f>Sheet2!$A$5</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFFFF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="47" operator="equal" id="{0BFAB624-CA97-4CE1-BBB6-A790385511BA}">
+            <xm:f>Sheet2!$A$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFCCFF99"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="48" operator="equal" id="{8405E1A5-35B6-4998-BEA9-A3309E9D0C2F}">
+            <xm:f>Sheet2!$A$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF99"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="49" operator="equal" id="{2BB4E676-0A98-4B16-A923-05DB0E325C6C}">
+            <xm:f>Sheet2!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="50" operator="equal" id="{B4A1B4E9-C44B-4664-8AC1-766C9919FD22}">
+            <xm:f>Sheet2!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF99CCFF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E6</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="41" operator="equal" id="{C8E68F9D-5E5F-4DCB-8724-98AE2EE0D07A}">
+            <xm:f>Sheet2!$A$5</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFFFF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="42" operator="equal" id="{E9191E40-6E4A-4900-AC66-F54C7E9B512D}">
+            <xm:f>Sheet2!$A$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFCCFF99"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="43" operator="equal" id="{85611D12-A62A-4E4A-A181-6D56C7008841}">
+            <xm:f>Sheet2!$A$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF99"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="44" operator="equal" id="{CFF2874B-A7F8-45A8-BC59-67407FC781D6}">
+            <xm:f>Sheet2!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="45" operator="equal" id="{18089C4E-4068-49D0-9246-F8D5466C4818}">
+            <xm:f>Sheet2!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF99CCFF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E7</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="36" operator="equal" id="{EFCE2500-9847-456B-9F9D-CB72DF203080}">
+            <xm:f>Sheet2!$A$5</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFFFF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="37" operator="equal" id="{363D0CC2-F3F9-4B4E-B6FC-A6FA3F2A6E4D}">
+            <xm:f>Sheet2!$A$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFCCFF99"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="38" operator="equal" id="{2A92E722-2923-4FA5-8BEA-BD84C04D1E53}">
+            <xm:f>Sheet2!$A$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF99"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="39" operator="equal" id="{B29EA91E-6173-4956-9D6F-C8A3704B8B37}">
+            <xm:f>Sheet2!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="40" operator="equal" id="{151617BA-4968-480A-AC90-DCCA8F0A7DB0}">
+            <xm:f>Sheet2!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF99CCFF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="31" operator="equal" id="{38A5808A-B7F2-4A78-92A7-8D174EC95405}">
+            <xm:f>Sheet2!$A$5</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFFFF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="32" operator="equal" id="{1DBF5D8F-927B-4FE5-9CDF-6846808B013F}">
+            <xm:f>Sheet2!$A$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFCCFF99"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="33" operator="equal" id="{2B562433-E7AE-4782-8C37-47B9641BCA6B}">
+            <xm:f>Sheet2!$A$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF99"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="34" operator="equal" id="{1C58D6C8-7250-44EE-8F89-AB3F738C2F3C}">
+            <xm:f>Sheet2!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="35" operator="equal" id="{BE2DA3C3-9858-4EC3-A2C2-50F956FBAA76}">
+            <xm:f>Sheet2!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF99CCFF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E9</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="26" operator="equal" id="{49524AA4-9C3A-4B50-8028-6B46B87FF2CF}">
+            <xm:f>Sheet2!$A$5</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFFFF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="27" operator="equal" id="{319E4111-D5C7-484F-84D5-24909304BEE1}">
+            <xm:f>Sheet2!$A$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFCCFF99"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="28" operator="equal" id="{3DA2F25E-D629-4085-9AE4-EC83A35F29ED}">
+            <xm:f>Sheet2!$A$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF99"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="29" operator="equal" id="{69E685A1-20C0-47B2-8B20-61EA20FEDC47}">
+            <xm:f>Sheet2!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="30" operator="equal" id="{B2D78BD4-E1D4-4172-9B14-B3E0A6031F20}">
+            <xm:f>Sheet2!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF99CCFF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E10</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="21" operator="equal" id="{5E8A4EFE-E3D0-4BA8-AEF0-0FB6941C4F84}">
+            <xm:f>Sheet2!$A$5</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFFFF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="22" operator="equal" id="{2670F995-F26B-4329-AA93-6131CDAF15C2}">
+            <xm:f>Sheet2!$A$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFCCFF99"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="23" operator="equal" id="{DE5194DA-5F23-43DE-8835-34C5692C2CD2}">
+            <xm:f>Sheet2!$A$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF99"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="24" operator="equal" id="{C217A70E-20E8-4C2C-815F-6F97F5C5E1FD}">
+            <xm:f>Sheet2!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="25" operator="equal" id="{0B892F49-DC03-446F-9958-13DBFAB77338}">
+            <xm:f>Sheet2!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF99CCFF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E11</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="1" operator="equal" id="{2C0AC945-E11D-47CC-893C-C9E13564A94E}">
+            <xm:f>Sheet2!$A$5</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFFFF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="2" operator="equal" id="{65C86146-03B7-4FB1-8B92-CF5379ADB6E4}">
+            <xm:f>Sheet2!$A$4</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFCCFF99"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="3" operator="equal" id="{E3B3125B-A9FA-4A66-ABBB-EAF7E8C2D994}">
+            <xm:f>Sheet2!$A$3</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFFF99"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="4" operator="equal" id="{C74206EC-5419-46D0-870E-B83497FBD849}">
+            <xm:f>Sheet2!$A$2</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="9" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="5" operator="equal" id="{117BB76F-5818-423C-B424-AD5521DF8F2F}">
+            <xm:f>Sheet2!$A$1</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FF99CCFF"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>E12:E21</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -673,7 +2111,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$1:$A$5</xm:f>
           </x14:formula1>
-          <xm:sqref>E5:E1048576 E2:E3</xm:sqref>
+          <xm:sqref>E2:E1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Documentation/Product Backlog.xlsx
+++ b/Documentation/Product Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="12225" windowHeight="3855"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,9 +12,9 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$28</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -27,21 +27,10 @@
     <t>Description</t>
   </si>
   <si>
-    <t>PBI00x</t>
-  </si>
-  <si>
-    <t>As a … 
-I want to …
-Because …</t>
-  </si>
-  <si>
     <t>Stroy Points</t>
   </si>
   <si>
     <t>Priority</t>
-  </si>
-  <si>
-    <t>1000 - 0</t>
   </si>
   <si>
     <t>Status</t>
@@ -68,9 +57,6 @@
     <t>As an administrator
 I want to make sure not everyone can access the site 
 Because we want to control the user count</t>
-  </si>
-  <si>
-    <t>THE CELL BELOW IS AN EMPTY USER STORY USE IT TO CREATE NEW ONES BUT DO NOT REMOVE IT</t>
   </si>
   <si>
     <t>PBI002</t>
@@ -156,22 +142,12 @@
 Because I want quick</t>
   </si>
   <si>
-    <t>As a user
-I don't want labels to be fixed
-Because I might think of topics of my own</t>
-  </si>
-  <si>
     <t>As an administrator
 I want every saved exercise and its questions to have labels of question-type and topic
 Because the user wants auto-generated tests</t>
   </si>
   <si>
     <t>As a user
-I don't want to add labels to questions (require topic? Auto-copy from exercise?)
-Because I want fast</t>
-  </si>
-  <si>
-    <t>As a user
 When auto-generating a test, I want to narrow potential questions by selecting a category, and then choose what labels to include and exclude, e.g. by (de)selecting related labels in a word cloud
 Because I don't want irrelevant questions</t>
   </si>
@@ -226,6 +202,31 @@
   </si>
   <si>
     <t>PBI020</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Duplicate</t>
+  </si>
+  <si>
+    <t>As a user
+I don't want to add a label to every question (require topic? Auto-copy from exercise?)
+Because I want fast</t>
+  </si>
+  <si>
+    <t>As a user
+I don't want labels to be fixed
+Because I might think of topics of my own
+(distinguish between category and (optional) label?)</t>
+  </si>
+  <si>
+    <t>PBI021</t>
+  </si>
+  <si>
+    <t>As a user (history teacher/student)
+I want to make timelines, the events of which are saved and labeled ('war', 'birth', 'France', 'independence', …) for database purposes; I also want to generate timelines from chosen labels which are then customisable; I also want to generate gap-filling exercises from my timelines
+Because teachers want easy customisable timelines, and students want to easily learn timelines</t>
   </si>
 </sst>
 </file>
@@ -249,7 +250,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -259,12 +260,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.59996337778862885"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,441 +276,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="105">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99CCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="45">
     <dxf>
       <fill>
         <patternFill>
@@ -1336,22 +909,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" customWidth="1"/>
     <col min="2" max="2" width="86.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1359,266 +932,322 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1000</v>
+      </c>
+      <c r="D2" s="4">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4">
+        <v>990</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="4">
+        <v>910</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4">
+        <v>900</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4">
+        <v>900</v>
+      </c>
+      <c r="E6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="4">
+        <v>900</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="4">
+        <v>900</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="4">
+        <v>900</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4">
+        <v>860</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4">
+        <v>850</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="4">
+        <v>850</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1000</v>
-      </c>
-      <c r="D2" s="5">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C13" s="4">
+        <v>720</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="4">
+        <v>700</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C15" s="4">
+        <v>700</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>48</v>
-      </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="C16" s="4">
+        <v>700</v>
       </c>
       <c r="E16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="C17" s="4">
+        <v>650</v>
       </c>
       <c r="E17" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
+      </c>
+      <c r="C18" s="4">
+        <v>650</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="C19" s="4">
+        <v>600</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
+      </c>
+      <c r="C20" s="4">
+        <v>510</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="4">
+        <v>500</v>
+      </c>
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" t="s">
-        <v>8</v>
+      <c r="C22" s="4">
+        <v>100</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1">
-    <sortState ref="A2:E6">
-      <sortCondition ref="A1"/>
+  <autoFilter ref="A1:F28">
+    <sortState ref="A2:F28">
+      <sortCondition descending="1" ref="C1:C28"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2134,27 +1763,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Product Backlog.xlsx
+++ b/Documentation/Product Backlog.xlsx
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$28</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
   <si>
     <t>ID</t>
   </si>
@@ -227,6 +227,38 @@
     <t>As a user (history teacher/student)
 I want to make timelines, the events of which are saved and labeled ('war', 'birth', 'France', 'independence', …) for database purposes; I also want to generate timelines from chosen labels which are then customisable; I also want to generate gap-filling exercises from my timelines
 Because teachers want easy customisable timelines, and students want to easily learn timelines</t>
+  </si>
+  <si>
+    <t>PBI023</t>
+  </si>
+  <si>
+    <t>PBI022</t>
+  </si>
+  <si>
+    <t>As a developer
+I want the html to be in the right place
+Because that seems like a good next step</t>
+  </si>
+  <si>
+    <t>PBI024</t>
+  </si>
+  <si>
+    <t>As a developer
+I want the test questions saved in the database
+Because that seems like a good next step</t>
+  </si>
+  <si>
+    <t>PBI025</t>
+  </si>
+  <si>
+    <t>As a developer
+I want the results saved in the database
+Because that seems like a good next step</t>
+  </si>
+  <si>
+    <t>As a developer
+I want to make and save a simple test
+Because that seems like a good next step</t>
   </si>
 </sst>
 </file>
@@ -909,11 +941,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,21 +1001,21 @@
         <v>19</v>
       </c>
       <c r="C3" s="4">
-        <v>990</v>
+        <v>999</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="C4" s="4">
-        <v>910</v>
+        <v>998</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
@@ -991,13 +1023,13 @@
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="C5" s="4">
-        <v>900</v>
+        <v>997</v>
       </c>
       <c r="E5" t="s">
         <v>5</v>
@@ -1005,13 +1037,13 @@
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="C6" s="4">
-        <v>900</v>
+        <v>996</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
@@ -1019,13 +1051,13 @@
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C7" s="4">
-        <v>900</v>
+        <v>995</v>
       </c>
       <c r="E7" t="s">
         <v>5</v>
@@ -1033,13 +1065,13 @@
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="C8" s="4">
-        <v>900</v>
+        <v>910</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
@@ -1047,10 +1079,10 @@
     </row>
     <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C9" s="4">
         <v>900</v>
@@ -1061,13 +1093,13 @@
     </row>
     <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C10" s="4">
-        <v>860</v>
+        <v>900</v>
       </c>
       <c r="E10" t="s">
         <v>5</v>
@@ -1075,13 +1107,13 @@
     </row>
     <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="C11" s="4">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="E11" t="s">
         <v>5</v>
@@ -1089,30 +1121,27 @@
     </row>
     <row r="12" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C12" s="4">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>49</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C13" s="4">
-        <v>720</v>
+        <v>900</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
@@ -1120,128 +1149,187 @@
     </row>
     <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="4">
+        <v>860</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4">
+        <v>850</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="4">
+        <v>720</v>
+      </c>
+      <c r="E16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C17" s="4">
         <v>700</v>
       </c>
-      <c r="E14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C18" s="4">
         <v>700</v>
       </c>
-      <c r="E15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C19" s="4">
         <v>700</v>
       </c>
-      <c r="E16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="E19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C20" s="4">
         <v>650</v>
       </c>
-      <c r="E17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C21" s="4">
         <v>650</v>
       </c>
-      <c r="E18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="E21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C22" s="4">
         <v>600</v>
       </c>
-      <c r="E19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C23" s="4">
         <v>510</v>
       </c>
-      <c r="E20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="E23" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C24" s="4">
         <v>500</v>
       </c>
-      <c r="E21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C25" s="4">
         <v>100</v>
       </c>
-      <c r="E22" t="s">
-        <v>5</v>
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Product Backlog.xlsx
+++ b/Documentation/Product Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="12225" windowHeight="3855"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16890" windowHeight="8265"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$28</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -95,11 +95,6 @@
   </si>
   <si>
     <t>As a user
-I want to track my progress by logging in
-Because it's educational</t>
-  </si>
-  <si>
-    <t>As a user
 I want to make tests and share them via a link without logging in
 Because I want quick and simple</t>
   </si>
@@ -107,11 +102,6 @@
     <t>As a user
 I want to take pre-made tests without logging in if I don't need to save my own results
 Because I want quick and simple</t>
-  </si>
-  <si>
-    <t>As a user
-I want to track other users' progress
-Because I want to help others</t>
   </si>
   <si>
     <t>As a new user
@@ -157,11 +147,6 @@
 Because I want to make the life of my users easier</t>
   </si>
   <si>
-    <t>As a user
-I want to inform my teacher (tracker) and the app if a question is irrelevant (and specify why with labels) and exclude it from result calculations (whether this can be done depends on owner of test)
-Because I don't want irrelevant questions and inaccurate results</t>
-  </si>
-  <si>
     <t>PBI007</t>
   </si>
   <si>
@@ -259,6 +244,21 @@
     <t>As a developer
 I want to make and save a simple test
 Because that seems like a good next step</t>
+  </si>
+  <si>
+    <t>As a user
+I want to see prior results by logging in
+Because it's educational</t>
+  </si>
+  <si>
+    <t>As a user
+I want to inform my teacher (owner of test and/or follower) and the app if a question is irrelevant (and specify why with labels) and exclude it from result calculations (whether this can be done depends on owner of test)
+Because I don't want irrelevant questions and inaccurate results</t>
+  </si>
+  <si>
+    <t>As a user
+I want to follow other users' progress (results)
+Because I want to help others</t>
   </si>
 </sst>
 </file>
@@ -944,8 +944,8 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,7 +973,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -1009,10 +1009,10 @@
     </row>
     <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C4" s="4">
         <v>998</v>
@@ -1023,10 +1023,10 @@
     </row>
     <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C5" s="4">
         <v>997</v>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C6" s="4">
         <v>996</v>
@@ -1051,10 +1051,10 @@
     </row>
     <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C7" s="4">
         <v>995</v>
@@ -1065,10 +1065,10 @@
     </row>
     <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="4">
         <v>910</v>
@@ -1093,10 +1093,10 @@
     </row>
     <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C10" s="4">
         <v>900</v>
@@ -1107,10 +1107,10 @@
     </row>
     <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C11" s="4">
         <v>900</v>
@@ -1119,12 +1119,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C12" s="4">
         <v>900</v>
@@ -1133,12 +1133,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C13" s="4">
         <v>900</v>
@@ -1149,10 +1149,10 @@
     </row>
     <row r="14" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="C14" s="4">
         <v>860</v>
@@ -1161,9 +1161,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>20</v>
@@ -1175,12 +1175,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="4">
         <v>720</v>
@@ -1189,12 +1189,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" s="4">
         <v>700</v>
@@ -1203,12 +1203,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C18" s="4">
         <v>700</v>
@@ -1219,10 +1219,10 @@
     </row>
     <row r="19" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C19" s="4">
         <v>700</v>
@@ -1231,12 +1231,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C20" s="4">
         <v>650</v>
@@ -1247,10 +1247,10 @@
     </row>
     <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21" s="4">
         <v>650</v>
@@ -1259,12 +1259,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C22" s="4">
         <v>600</v>
@@ -1278,7 +1278,7 @@
         <v>14</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="4">
         <v>510</v>
@@ -1301,12 +1301,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C25" s="4">
         <v>100</v>
@@ -1317,10 +1317,10 @@
     </row>
     <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="C26" s="4">
         <v>0</v>
@@ -1329,7 +1329,7 @@
         <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Product Backlog.xlsx
+++ b/Documentation/Product Backlog.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="16890" windowHeight="8265"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="16890" windowHeight="3945"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,11 +15,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$28</definedName>
   </definedNames>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
   <si>
     <t>ID</t>
   </si>
@@ -259,6 +260,14 @@
     <t>As a user
 I want to follow other users' progress (results)
 Because I want to help others</t>
+  </si>
+  <si>
+    <t>PBI026</t>
+  </si>
+  <si>
+    <t>As a user
+I want learning paths that can be made, shared and taken
+Because it maps my progress and/or the progress of my students</t>
   </si>
 </sst>
 </file>
@@ -941,11 +950,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1275,13 +1284,13 @@
     </row>
     <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
       <c r="C23" s="4">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="E23" t="s">
         <v>5</v>
@@ -1289,13 +1298,13 @@
     </row>
     <row r="24" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C24" s="4">
-        <v>500</v>
+        <v>410</v>
       </c>
       <c r="E24" t="s">
         <v>5</v>
@@ -1303,13 +1312,13 @@
     </row>
     <row r="25" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="C25" s="4">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E25" t="s">
         <v>5</v>
@@ -1317,24 +1326,38 @@
     </row>
     <row r="26" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="4">
+        <v>100</v>
+      </c>
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C27" s="4">
         <v>0</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E27" t="s">
         <v>9</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F27" t="s">
         <v>46</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F28">
-    <sortState ref="A2:F28">
+    <sortState ref="A2:F27">
       <sortCondition descending="1" ref="C1:C28"/>
     </sortState>
   </autoFilter>
